--- a/medicine/Mort/Cimetière_Saint-Léonce_de_Fréjus/Cimetière_Saint-Léonce_de_Fréjus.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Léonce_de_Fréjus/Cimetière_Saint-Léonce_de_Fréjus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-L%C3%A9once_de_Fr%C3%A9jus</t>
+          <t>Cimetière_Saint-Léonce_de_Fréjus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Léonce de Fréjus est le cimetière municipal ancien de la ville de Fréjus dans le Var. Il se trouve dans le centre-ville, place Saint-Léonce[1]. Il est ombragé de cyprès et sa partie ancienne comporte d'imposants tombeaux de famille[2]. On remarque plusieurs tombes des victimes de la catastrophe du barrage de Malpasset en 1959. Il possède un petit carré militaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Léonce de Fréjus est le cimetière municipal ancien de la ville de Fréjus dans le Var. Il se trouve dans le centre-ville, place Saint-Léonce. Il est ombragé de cyprès et sa partie ancienne comporte d'imposants tombeaux de famille. On remarque plusieurs tombes des victimes de la catastrophe du barrage de Malpasset en 1959. Il possède un petit carré militaire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-L%C3%A9once_de_Fr%C3%A9jus</t>
+          <t>Cimetière_Saint-Léonce_de_Fréjus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gustave Bret (1875-1969), compositeur
 Paul Bret, peintre, fils du précédent
 Carolus-Duran (1837-1917), peintre académique et portraitiste, avec son épouse la miniaturiste Pauline Croizette (1839-1912)
 André Léotard (1907-1975), maire de Fréjus
-François Léotard (1942-2023), ministre et député, fils du précédent[3]
+François Léotard (1942-2023), ministre et député, fils du précédent
 Paul Roux (1921-1991), romaniste et provençaliste</t>
         </is>
       </c>
